--- a/Data Files/ticket info.xlsx
+++ b/Data Files/ticket info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trongbui/katalon/sources/katalon-studio-samples/demo-project/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD368756-C5E9-284B-A21B-AD24E38C8501}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048329CC-6830-6D40-836A-7FEFE289ACD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{1ECF6718-6588-B741-BF29-CF992BD1CBBC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>issue_sum</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Cannot created ticket without assigned user</t>
+  </si>
+  <si>
+    <t>issue_type</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17F3656-A28D-804C-8FCF-8716EAD36803}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,28 +420,37 @@
     <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
